--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9288A92-A103-4F8B-B0DE-AE4F6FE9B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,30 @@
     <sheet name="Emissions" sheetId="3" r:id="rId3"/>
     <sheet name="Intervention parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,12 +59,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +82,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,8 +203,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,21 +305,305 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -347,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +682,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,6 +734,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,22 +927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -625,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -647,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -669,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -680,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -691,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -708,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -716,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -727,7 +1068,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -748,7 +1089,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -765,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -782,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -799,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -816,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -833,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -850,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -867,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -886,92 +1227,71 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -981,15 +1301,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1000,7 +1322,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1343,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1035,10 +1357,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>1.232698453023445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1232.6984530234452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1052,10 +1374,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3947958851118805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>394.79588511188052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1069,10 +1391,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>5.053240820475563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5053.2408204755629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1086,10 +1408,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>1.053208013898892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1053.208013898892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1103,10 +1425,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>6.878851845123942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6878.8518451239424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1120,10 +1442,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>7.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1137,10 +1459,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>5.27786049857935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>5277.86049857935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1154,97 +1476,76 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>1.126675067698231</v>
+        <v>1126.6750676982308</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1254,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -1262,7 +1563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -1273,7 +1574,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1595,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1314,7 +1615,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1334,7 +1635,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1354,7 +1655,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1374,7 +1675,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1394,7 +1695,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1414,7 +1715,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1434,7 +1735,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1456,92 +1757,71 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -1,47 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9288A92-A103-4F8B-B0DE-AE4F6FE9B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Number of facilities" sheetId="2" r:id="rId2"/>
     <sheet name="Emissions" sheetId="3" r:id="rId3"/>
     <sheet name="Intervention parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Coverage parameters" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,12 +41,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,12 +64,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +78,98 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Multiplier that can be targeted by programs to proportionally reduce emissions (default = 1, programs to target and reduce parameter, e.g., if an intervention reduces a specific emission by 20%, then *_mult = 0.8).</t>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input as X% reduction in emissions</t>
         </r>
       </text>
     </comment>
@@ -105,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="46">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -191,7 +264,31 @@
     <t>Total CO2e emissions</t>
   </si>
   <si>
-    <t>Total CO2e emissions - multiplier</t>
+    <t>Energy saving LED</t>
+  </si>
+  <si>
+    <t>Low emitting materials</t>
+  </si>
+  <si>
+    <t>Electric cars</t>
+  </si>
+  <si>
+    <t>Low emitting anesthetic gases</t>
+  </si>
+  <si>
+    <t>Borehole water</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Low emitting inhalers</t>
+  </si>
+  <si>
+    <t>Local procurements</t>
+  </si>
+  <si>
+    <t>Energy saving LED - coverage</t>
   </si>
   <si>
     <t>Framework-supplied default</t>
@@ -199,12 +296,33 @@
   <si>
     <t>N.A.</t>
   </si>
+  <si>
+    <t>Low emitting materials - coverage</t>
+  </si>
+  <si>
+    <t>Electric cars - coverage</t>
+  </si>
+  <si>
+    <t>Low emitting anesthetic gases - coverage</t>
+  </si>
+  <si>
+    <t>Borehole water - coverage</t>
+  </si>
+  <si>
+    <t>Recycling - coverage</t>
+  </si>
+  <si>
+    <t>Low emitting inhalers - coverage</t>
+  </si>
+  <si>
+    <t>Local procurements - coverage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,14 +423,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
@@ -325,285 +436,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -650,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,27 +516,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,24 +550,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,24 +725,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -966,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -977,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -988,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -999,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1049,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -1057,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1068,7 +864,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +885,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1106,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1123,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1140,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1157,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1174,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1191,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1208,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1227,71 +1023,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1301,17 +1118,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1322,7 +1137,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1158,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1357,10 +1172,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>1232.6984530234452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.232698453023445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1374,10 +1189,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>394.79588511188052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3947958851118805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1391,10 +1206,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>5053.2408204755629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.053240820475563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1408,10 +1223,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>1053.208013898892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.053208013898892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1425,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>6878.8518451239424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.878851845123942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1442,10 +1257,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>7060</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1459,10 +1274,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>5277.86049857935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.27786049857935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1476,76 +1291,97 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>1126.6750676982308</v>
+        <v>1.126675067698231</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1555,17 +1391,2005 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.1295497411111001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.7685331628046782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="60">
+      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="64">
+      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="0" priority="93">
+      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="0" priority="95">
+      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="96">
+      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="0" priority="99">
+      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="0" priority="107">
+      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="108">
+      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="0" priority="113">
+      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="0" priority="119">
+      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="120">
+      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="0" priority="125">
+      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1574,9 +3398,9 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -1595,237 +3419,2140 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="3"/>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>aga-khan_hosp_KE</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>aga-khan_medi_KE</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>laudium_chc_SA</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>stanza-bopape_chc_SA</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>mamelodi_hosp_SA</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>mt-darwin_hosp_ZW</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="str">
+        <f>'Population Definitions'!$A$8</f>
+        <v>dotito_rhcc_ZW</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="str">
+        <f>'Population Definitions'!$A$9</f>
+        <v>chitse_rhcc_ZW</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="60">
+      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="64">
+      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="0" priority="93">
+      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="0" priority="95">
+      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="96">
+      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="0" priority="99">
+      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="0" priority="107">
+      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="108">
+      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="0" priority="113">
+      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="0" priority="119">
+      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="120">
+      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="0" priority="125">
+      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC00B6-7FAC-4D11-B821-7C21B0CEE67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -13,17 +19,30 @@
     <sheet name="Intervention parameters" sheetId="4" r:id="rId4"/>
     <sheet name="Coverage parameters" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,12 +60,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,12 +83,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0">
+    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -321,8 +340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,7 +442,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
@@ -436,15 +455,227 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -482,7 +713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -516,6 +747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -550,9 +782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,22 +958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -762,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -773,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -784,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -795,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -806,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -817,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -828,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -845,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -853,7 +1086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -864,7 +1097,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -885,7 +1118,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -902,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -919,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -936,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -953,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -970,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -987,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1004,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1022,93 +1255,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1118,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -1126,7 +1282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1137,7 +1293,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1314,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1172,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>1.232698453023445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.2326984530234451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1189,10 +1345,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3947958851118805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.39479588511188052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1206,10 +1362,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>5.053240820475563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.0532408204755628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1226,7 +1382,7 @@
         <v>1.053208013898892</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1240,10 +1396,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>6.878851845123942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6.8788518451239424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1260,7 +1416,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1274,10 +1430,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>5.27786049857935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>5.2778604985793498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1291,97 +1447,20 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>1.126675067698231</v>
+        <v>1.1266750676982309</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1391,15 +1470,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1410,7 +1491,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1512,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1445,10 +1526,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1462,10 +1543,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1479,10 +1560,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1496,10 +1577,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1513,10 +1594,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1530,10 +1611,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1547,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1564,10 +1645,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>0.3379213449588443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.33792134495884429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1669,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1602,10 +1683,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1619,10 +1700,10 @@
         <v>26</v>
       </c>
       <c r="G13" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1636,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="G14" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1653,10 +1734,10 @@
         <v>26</v>
       </c>
       <c r="G15" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1670,10 +1751,10 @@
         <v>26</v>
       </c>
       <c r="G16" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1687,10 +1768,10 @@
         <v>26</v>
       </c>
       <c r="G17" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1704,10 +1785,10 @@
         <v>26</v>
       </c>
       <c r="G18" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1721,10 +1802,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="3">
-        <v>0.6773551151322755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.67735511513227553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1745,7 +1826,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1762,7 +1843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1779,7 +1860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1796,7 +1877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1813,7 +1894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1830,7 +1911,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1847,7 +1928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1864,7 +1945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1881,7 +1962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1983,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1919,7 +2000,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1936,7 +2017,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1953,7 +2034,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1970,7 +2051,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1987,7 +2068,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2004,7 +2085,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2021,7 +2102,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2038,7 +2119,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2140,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2073,10 +2154,10 @@
         <v>26</v>
       </c>
       <c r="G42" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2090,10 +2171,10 @@
         <v>26</v>
       </c>
       <c r="G43" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2107,10 +2188,10 @@
         <v>26</v>
       </c>
       <c r="G44" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2124,10 +2205,10 @@
         <v>26</v>
       </c>
       <c r="G45" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2141,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="G46" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2158,10 +2239,10 @@
         <v>26</v>
       </c>
       <c r="G47" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2175,10 +2256,10 @@
         <v>26</v>
       </c>
       <c r="G48" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2192,10 +2273,10 @@
         <v>26</v>
       </c>
       <c r="G49" s="3">
-        <v>0.7260996840490647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.72609968404906466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2297,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2230,10 +2311,10 @@
         <v>26</v>
       </c>
       <c r="G52" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2247,10 +2328,10 @@
         <v>26</v>
       </c>
       <c r="G53" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2264,10 +2345,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2281,10 +2362,10 @@
         <v>26</v>
       </c>
       <c r="G55" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2298,10 +2379,10 @@
         <v>26</v>
       </c>
       <c r="G56" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2315,10 +2396,10 @@
         <v>26</v>
       </c>
       <c r="G57" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2332,10 +2413,10 @@
         <v>26</v>
       </c>
       <c r="G58" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2349,10 +2430,10 @@
         <v>26</v>
       </c>
       <c r="G59" s="3">
-        <v>0.2218445810755648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.22184458107556479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2373,7 +2454,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2390,7 +2471,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2407,7 +2488,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2424,7 +2505,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2441,7 +2522,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2458,7 +2539,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2475,7 +2556,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2492,7 +2573,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2509,7 +2590,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2611,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2547,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2564,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2581,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2598,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2615,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2632,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2649,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2667,709 +2748,72 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="0" priority="17">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E19">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
-      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="26">
-      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="28">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
-      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="0" priority="31">
-      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="32">
-      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="0" priority="33">
+  <conditionalFormatting sqref="E22:E29">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="0" priority="35">
-      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36">
-      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="38">
-      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="0" priority="39">
-      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="40">
-      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="0" priority="41">
-      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="0" priority="43">
-      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
-      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="0" priority="45">
-      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="46">
-      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="0" priority="47">
-      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="0" priority="49">
+  <conditionalFormatting sqref="E32:E39">
+    <cfRule type="expression" dxfId="25" priority="49">
       <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="24" priority="50">
       <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="0" priority="51">
-      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
-      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="0" priority="53">
-      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
-      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="0" priority="55">
-      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="56">
-      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="0" priority="57">
-      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="58">
-      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="0" priority="59">
-      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="60">
-      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="0" priority="61">
-      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
-      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="0" priority="63">
-      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="64">
-      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="0" priority="65">
+  <conditionalFormatting sqref="E42:E49">
+    <cfRule type="expression" dxfId="23" priority="65">
       <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
+    <cfRule type="expression" dxfId="22" priority="66">
       <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="0" priority="67">
-      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="68">
-      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="0" priority="69">
-      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
-      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="0" priority="71">
-      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72">
-      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="0" priority="73">
-      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74">
-      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="0" priority="75">
-      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="76">
-      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="0" priority="77">
-      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="78">
-      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="0" priority="79">
-      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="80">
-      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="0" priority="81">
+  <conditionalFormatting sqref="E52:E59">
+    <cfRule type="expression" dxfId="21" priority="81">
       <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
+    <cfRule type="expression" dxfId="20" priority="82">
       <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="0" priority="83">
-      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="84">
-      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="0" priority="85">
-      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="86">
-      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="0" priority="87">
-      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="88">
-      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="0" priority="89">
-      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="0" priority="91">
-      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="92">
-      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="0" priority="93">
-      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="94">
-      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="0" priority="95">
-      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="96">
-      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="0" priority="97">
+  <conditionalFormatting sqref="E62:E69">
+    <cfRule type="expression" dxfId="19" priority="97">
       <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
+    <cfRule type="expression" dxfId="18" priority="98">
       <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="0" priority="99">
-      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="E72:E79">
+    <cfRule type="expression" dxfId="17" priority="114">
+      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="100">
-      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
+    <cfRule type="expression" dxfId="16" priority="113">
+      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="0" priority="101">
-      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="0" priority="103">
-      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="104">
-      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="0" priority="105">
-      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="106">
-      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="0" priority="107">
-      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="108">
-      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="0" priority="109">
-      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
-      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="0" priority="111">
-      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="112">
-      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="0" priority="113">
-      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
-      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="0" priority="115">
-      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="116">
-      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="0" priority="117">
-      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118">
-      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="0" priority="119">
-      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="120">
-      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="0" priority="121">
-      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="122">
-      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="0" priority="123">
-      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="124">
-      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="0" priority="125">
-      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
-      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="0" priority="127">
-      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128">
-      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="64">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72:C79 C62:C69 C52:C59 C42:C49 C32:C39 C22:C29 C12:C19 C2:C9" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3379,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -3387,7 +2831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -3398,7 +2842,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3419,7 +2863,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3439,7 +2883,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3459,7 +2903,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3479,7 +2923,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3499,7 +2943,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3519,7 +2963,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3539,7 +2983,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3559,7 +3003,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3579,7 +3023,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3600,7 +3044,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3620,7 +3064,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3640,7 +3084,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3660,7 +3104,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3680,7 +3124,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3700,7 +3144,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3720,7 +3164,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3740,7 +3184,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3760,7 +3204,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3781,7 +3225,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3801,7 +3245,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3821,7 +3265,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3841,7 +3285,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3861,7 +3305,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3881,7 +3325,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3901,7 +3345,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3921,7 +3365,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3941,7 +3385,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3962,7 +3406,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3982,7 +3426,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4002,7 +3446,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4022,7 +3466,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4042,7 +3486,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4062,7 +3506,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4082,7 +3526,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4102,7 +3546,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4122,7 +3566,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -4143,7 +3587,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -4163,7 +3607,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4183,7 +3627,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4203,7 +3647,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4223,7 +3667,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4243,7 +3687,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4263,7 +3707,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4283,7 +3727,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4303,7 +3747,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4324,7 +3768,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -4344,7 +3788,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4364,7 +3808,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4384,7 +3828,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4404,7 +3848,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4424,7 +3868,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4444,7 +3888,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4464,7 +3908,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4484,7 +3928,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +3949,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -4525,7 +3969,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4545,7 +3989,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4565,7 +4009,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4585,7 +4029,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4605,7 +4049,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4625,7 +4069,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4645,7 +4089,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4665,7 +4109,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4130,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -4706,7 +4150,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4726,7 +4170,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4746,7 +4190,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4766,7 +4210,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4786,7 +4230,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4806,7 +4250,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4826,7 +4270,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4847,709 +4291,72 @@
       <c r="G79" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="0" priority="17">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E19">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
-      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="26">
-      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="28">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
-      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="0" priority="31">
-      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="32">
-      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="0" priority="33">
+  <conditionalFormatting sqref="E22:E29">
+    <cfRule type="expression" dxfId="11" priority="33">
       <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="0" priority="35">
-      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36">
-      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="38">
-      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="0" priority="39">
-      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="40">
-      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="0" priority="41">
-      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="0" priority="43">
-      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
-      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="0" priority="45">
-      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="46">
-      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="0" priority="47">
-      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="0" priority="49">
+  <conditionalFormatting sqref="E32:E39">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="8" priority="50">
       <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="0" priority="51">
-      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
-      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="0" priority="53">
-      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
-      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="0" priority="55">
-      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="56">
-      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="0" priority="57">
-      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="58">
-      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="0" priority="59">
-      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="60">
-      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="0" priority="61">
-      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
-      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="0" priority="63">
-      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="64">
-      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="0" priority="65">
+  <conditionalFormatting sqref="E42:E49">
+    <cfRule type="expression" dxfId="7" priority="65">
       <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
+    <cfRule type="expression" dxfId="6" priority="66">
       <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="0" priority="67">
-      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="68">
-      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="0" priority="69">
-      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
-      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="0" priority="71">
-      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72">
-      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="0" priority="73">
-      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74">
-      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="0" priority="75">
-      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="76">
-      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="0" priority="77">
-      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="78">
-      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="0" priority="79">
-      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="80">
-      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="0" priority="81">
+  <conditionalFormatting sqref="E52:E59">
+    <cfRule type="expression" dxfId="5" priority="81">
       <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
+    <cfRule type="expression" dxfId="4" priority="82">
       <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="0" priority="83">
-      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="84">
-      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="0" priority="85">
-      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="86">
-      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="0" priority="87">
-      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="88">
-      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="0" priority="89">
-      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="0" priority="91">
-      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="92">
-      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="0" priority="93">
-      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="94">
-      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="0" priority="95">
-      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="96">
-      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="0" priority="97">
+  <conditionalFormatting sqref="E62:E69">
+    <cfRule type="expression" dxfId="3" priority="97">
       <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
+    <cfRule type="expression" dxfId="2" priority="98">
       <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="0" priority="99">
-      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="E72:E79">
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="100">
-      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="0" priority="101">
-      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="0" priority="103">
-      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="104">
-      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="0" priority="105">
-      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="106">
-      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="0" priority="107">
-      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="108">
-      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="0" priority="109">
-      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
-      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="0" priority="111">
-      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="112">
-      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="0" priority="113">
       <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
-      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="0" priority="115">
-      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="116">
-      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="0" priority="117">
-      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118">
-      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="0" priority="119">
-      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="120">
-      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="0" priority="121">
-      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="122">
-      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="0" priority="123">
-      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="124">
-      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="0" priority="125">
-      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
-      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="0" priority="127">
-      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128">
-      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="64">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72:C79 C62:C69 C52:C59 C42:C49 C32:C39 C22:C29 C12:C19 C2:C9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC00B6-7FAC-4D11-B821-7C21B0CEE67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -19,30 +13,17 @@
     <sheet name="Intervention parameters" sheetId="4" r:id="rId4"/>
     <sheet name="Coverage parameters" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,12 +41,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,12 +64,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,11 +78,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,11 +91,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,11 +104,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,11 +117,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,11 +130,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="A51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,11 +143,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,11 +156,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +169,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input as X% reduction in emissions</t>
+          <t>Reduction in emissions (proportion)</t>
         </r>
       </text>
     </comment>
@@ -283,28 +264,28 @@
     <t>Total CO2e emissions</t>
   </si>
   <si>
-    <t>Energy saving LED</t>
+    <t>Energy saving LED - effect</t>
   </si>
   <si>
-    <t>Low emitting materials</t>
+    <t>Low emitting materials - effect</t>
   </si>
   <si>
-    <t>Electric cars</t>
+    <t>Electric cars - effect</t>
   </si>
   <si>
-    <t>Low emitting anesthetic gases</t>
+    <t>Low emitting anesthetic gases - effect</t>
   </si>
   <si>
-    <t>Borehole water</t>
+    <t>Borehole water - effect</t>
   </si>
   <si>
-    <t>Recycling</t>
+    <t>Recycling - effect</t>
   </si>
   <si>
-    <t>Low emitting inhalers</t>
+    <t>Low emitting inhalers - effect</t>
   </si>
   <si>
-    <t>Local procurements</t>
+    <t>Local procurements - effect</t>
   </si>
   <si>
     <t>Energy saving LED - coverage</t>
@@ -340,8 +321,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,7 +423,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
@@ -455,227 +436,15 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,7 +482,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -747,7 +516,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -782,10 +550,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -958,22 +725,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -995,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1039,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -1086,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1097,7 +864,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +885,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1135,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1152,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1169,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1186,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1203,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1220,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1237,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1255,16 +1022,93 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1274,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -1282,7 +1126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1293,7 +1137,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1158,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1328,10 +1172,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>1.2326984530234451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.232698453023445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1345,10 +1189,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>0.39479588511188052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3947958851118805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1362,10 +1206,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0532408204755628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.053240820475563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1382,7 +1226,7 @@
         <v>1.053208013898892</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1396,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>6.8788518451239424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.878851845123942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1416,7 +1260,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1430,10 +1274,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>5.2778604985793498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.27786049857935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1447,20 +1291,97 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>1.1266750676982309</v>
+        <v>1.126675067698231</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="expression" dxfId="33" priority="1">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1470,19 +1391,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1491,7 +1410,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1431,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1526,10 +1445,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1543,10 +1462,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1560,10 +1479,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1577,10 +1496,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1594,10 +1513,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1611,10 +1530,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1628,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1645,10 +1564,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="3">
-        <v>0.33792134495884429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3379213449588443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +1588,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1683,10 +1602,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1700,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="G13" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1717,10 +1636,10 @@
         <v>26</v>
       </c>
       <c r="G14" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1734,10 +1653,10 @@
         <v>26</v>
       </c>
       <c r="G15" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1751,10 +1670,10 @@
         <v>26</v>
       </c>
       <c r="G16" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1768,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="G17" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1785,10 +1704,10 @@
         <v>26</v>
       </c>
       <c r="G18" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1802,10 +1721,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="3">
-        <v>0.67735511513227553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6773551151322755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1745,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -1843,7 +1762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -1860,7 +1779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -1877,7 +1796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -1894,7 +1813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -1911,7 +1830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -1928,7 +1847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -1945,7 +1864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -1962,7 +1881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1983,7 +1902,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2000,7 +1919,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2017,7 +1936,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2034,7 +1953,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2051,7 +1970,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2068,7 +1987,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2085,7 +2004,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2102,7 +2021,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2119,7 +2038,7 @@
         <v>0.1295497411111001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2059,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2154,10 +2073,10 @@
         <v>26</v>
       </c>
       <c r="G42" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2171,10 +2090,10 @@
         <v>26</v>
       </c>
       <c r="G43" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2188,10 +2107,10 @@
         <v>26</v>
       </c>
       <c r="G44" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2205,10 +2124,10 @@
         <v>26</v>
       </c>
       <c r="G45" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2222,10 +2141,10 @@
         <v>26</v>
       </c>
       <c r="G46" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2239,10 +2158,10 @@
         <v>26</v>
       </c>
       <c r="G47" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2256,10 +2175,10 @@
         <v>26</v>
       </c>
       <c r="G48" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2273,10 +2192,10 @@
         <v>26</v>
       </c>
       <c r="G49" s="3">
-        <v>0.72609968404906466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7260996840490647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -2297,7 +2216,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2311,10 +2230,10 @@
         <v>26</v>
       </c>
       <c r="G52" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2328,10 +2247,10 @@
         <v>26</v>
       </c>
       <c r="G53" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2345,10 +2264,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2362,10 +2281,10 @@
         <v>26</v>
       </c>
       <c r="G55" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2379,10 +2298,10 @@
         <v>26</v>
       </c>
       <c r="G56" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2396,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="G57" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2413,10 +2332,10 @@
         <v>26</v>
       </c>
       <c r="G58" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2430,10 +2349,10 @@
         <v>26</v>
       </c>
       <c r="G59" s="3">
-        <v>0.22184458107556479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2218445810755648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2454,7 +2373,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2471,7 +2390,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2488,7 +2407,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2505,7 +2424,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2522,7 +2441,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2539,7 +2458,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2556,7 +2475,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2573,7 +2492,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2590,7 +2509,7 @@
         <v>0.7685331628046782</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,7 +2530,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2628,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2645,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2662,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2679,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2696,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2713,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -2730,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -2748,72 +2667,709 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="expression" dxfId="31" priority="1">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E19">
-    <cfRule type="expression" dxfId="29" priority="17">
-      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
-      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E29">
-    <cfRule type="expression" dxfId="27" priority="33">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="0" priority="33">
       <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E39">
-    <cfRule type="expression" dxfId="25" priority="49">
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="50">
+    <cfRule type="expression" dxfId="1" priority="50">
       <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E49">
-    <cfRule type="expression" dxfId="23" priority="65">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="60">
+      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="64">
+      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="66">
+    <cfRule type="expression" dxfId="1" priority="66">
       <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E59">
-    <cfRule type="expression" dxfId="21" priority="81">
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="0" priority="81">
       <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="82">
+    <cfRule type="expression" dxfId="1" priority="82">
       <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E69">
-    <cfRule type="expression" dxfId="19" priority="97">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="0" priority="93">
+      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="0" priority="95">
+      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="96">
+      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="0" priority="97">
       <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="98">
+    <cfRule type="expression" dxfId="1" priority="98">
       <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E79">
-    <cfRule type="expression" dxfId="17" priority="114">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="0" priority="99">
+      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="0" priority="107">
+      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="108">
+      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="0" priority="113">
+      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="114">
       <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="113">
-      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72:C79 C62:C69 C52:C59 C42:C49 C32:C39 C22:C29 C12:C19 C2:C9" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="0" priority="119">
+      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="120">
+      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="0" priority="125">
+      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2823,7 +3379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -2831,7 +3387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -2842,7 +3398,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2863,7 +3419,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -2883,7 +3439,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -2903,7 +3459,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -2923,7 +3479,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -2943,7 +3499,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -2963,7 +3519,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -2983,7 +3539,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3003,7 +3559,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3023,7 +3579,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3044,7 +3600,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3064,7 +3620,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3084,7 +3640,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3104,7 +3660,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3124,7 +3680,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3144,7 +3700,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3164,7 +3720,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3184,7 +3740,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3204,7 +3760,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3225,7 +3781,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3245,7 +3801,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3265,7 +3821,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3285,7 +3841,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3305,7 +3861,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3325,7 +3881,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3345,7 +3901,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3365,7 +3921,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3385,7 +3941,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3406,7 +3962,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3426,7 +3982,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3446,7 +4002,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3466,7 +4022,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3486,7 +4042,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3506,7 +4062,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3526,7 +4082,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3546,7 +4102,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3566,7 +4122,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -3587,7 +4143,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3607,7 +4163,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3627,7 +4183,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3647,7 +4203,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3667,7 +4223,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3687,7 +4243,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3707,7 +4263,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3727,7 +4283,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3747,7 +4303,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,7 +4324,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3788,7 +4344,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3808,7 +4364,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -3828,7 +4384,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -3848,7 +4404,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -3868,7 +4424,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -3888,7 +4444,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -3908,7 +4464,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -3928,7 +4484,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
@@ -3949,7 +4505,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -3969,7 +4525,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -3989,7 +4545,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4009,7 +4565,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4029,7 +4585,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4049,7 +4605,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4069,7 +4625,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4089,7 +4645,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4109,7 +4665,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -4130,7 +4686,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>aga-khan_hosp_KE</v>
@@ -4150,7 +4706,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>aga-khan_medi_KE</v>
@@ -4170,7 +4726,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>laudium_chc_SA</v>
@@ -4190,7 +4746,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>stanza-bopape_chc_SA</v>
@@ -4210,7 +4766,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>mamelodi_hosp_SA</v>
@@ -4230,7 +4786,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>mt-darwin_hosp_ZW</v>
@@ -4250,7 +4806,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>dotito_rhcc_ZW</v>
@@ -4270,7 +4826,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>chitse_rhcc_ZW</v>
@@ -4291,72 +4847,709 @@
       <c r="G79" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND(COUNTIF(G15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E19">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E29">
-    <cfRule type="expression" dxfId="11" priority="33">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="0" priority="33">
       <formula>COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>AND(COUNTIF(G22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E39">
-    <cfRule type="expression" dxfId="9" priority="49">
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>AND(COUNTIF(G28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>AND(COUNTIF(G29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="50">
+    <cfRule type="expression" dxfId="1" priority="50">
       <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E49">
-    <cfRule type="expression" dxfId="7" priority="65">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>AND(COUNTIF(G35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>AND(COUNTIF(G36:G36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="60">
+      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="64">
+      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="66">
+    <cfRule type="expression" dxfId="1" priority="66">
       <formula>AND(COUNTIF(G42:G42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E59">
-    <cfRule type="expression" dxfId="5" priority="81">
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>AND(COUNTIF(G43:G43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>AND(COUNTIF(G49:G49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="0" priority="81">
       <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="82">
+    <cfRule type="expression" dxfId="1" priority="82">
       <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E69">
-    <cfRule type="expression" dxfId="3" priority="97">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>AND(COUNTIF(G56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>AND(COUNTIF(G57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="0" priority="93">
+      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="0" priority="95">
+      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="96">
+      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="0" priority="97">
       <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="98">
+    <cfRule type="expression" dxfId="1" priority="98">
       <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E79">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="0" priority="99">
+      <formula>COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>AND(COUNTIF(G63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>AND(COUNTIF(G64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="0" priority="107">
+      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="108">
+      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="0" priority="113">
+      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="1" priority="114">
       <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="113">
-      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72:C79 C62:C69 C52:C59 C42:C49 C32:C39 C22:C29 C12:C19 C2:C9" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="0" priority="119">
+      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="120">
+      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>AND(COUNTIF(G77:G77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="0" priority="125">
+      <formula>COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>AND(COUNTIF(G78:G78,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -51,10 +51,10 @@
     <t>Population type</t>
   </si>
   <si>
-    <t>facility_1</t>
-  </si>
-  <si>
-    <t>Facility 1</t>
+    <t>mt_darwin</t>
+  </si>
+  <si>
+    <t>Mt Darwin</t>
   </si>
   <si>
     <t>facilities</t>
@@ -81,16 +81,52 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Emission source 1</t>
+    <t>Energy</t>
   </si>
   <si>
     <t>N.A.</t>
   </si>
   <si>
-    <t>Emission source 1 - multiplier</t>
+    <t>Vehicle Fuel</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Anaesthetic Gases</t>
+  </si>
+  <si>
+    <t>Refridgerant</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Inhalers</t>
+  </si>
+  <si>
+    <t>Energy - multiplier</t>
   </si>
   <si>
     <t>Framework-supplied default</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel - multiplier</t>
+  </si>
+  <si>
+    <t>Travel - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic Gases - multiplier</t>
+  </si>
+  <si>
+    <t>Refridgerant - multiplier</t>
+  </si>
+  <si>
+    <t>Waste - multiplier</t>
+  </si>
+  <si>
+    <t>Inhalers - multiplier</t>
   </si>
 </sst>
 </file>
@@ -586,7 +622,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -624,7 +660,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +699,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -674,10 +710,262 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>1.2</v>
+        <v>39.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.34</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -686,8 +974,50 @@
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
@@ -700,7 +1030,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -739,24 +1069,294 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3"/>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mt_darwin</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -765,8 +1365,50 @@
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -81,28 +81,28 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Energy - baseline</t>
   </si>
   <si>
     <t>N.A.</t>
   </si>
   <si>
-    <t>Vehicle Fuel</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases</t>
-  </si>
-  <si>
-    <t>Refridgerant</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Inhalers</t>
+    <t>Vehicle Fuel - baseline</t>
+  </si>
+  <si>
+    <t>Travel - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic Gases - baseline</t>
+  </si>
+  <si>
+    <t>Refridgerant - baseline</t>
+  </si>
+  <si>
+    <t>Waste - baseline</t>
+  </si>
+  <si>
+    <t>Inhalers - baseline</t>
   </si>
   <si>
     <t>Energy - multiplier</t>
@@ -666,7 +666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -51,10 +51,10 @@
     <t>Population type</t>
   </si>
   <si>
-    <t>mt_darwin</t>
-  </si>
-  <si>
-    <t>Mt Darwin</t>
+    <t>mb_hosp</t>
+  </si>
+  <si>
+    <t>Mombasa Hospital</t>
   </si>
   <si>
     <t>facilities</t>
@@ -87,18 +87,21 @@
     <t>N.A.</t>
   </si>
   <si>
-    <t>Vehicle Fuel - baseline</t>
-  </si>
-  <si>
-    <t>Travel - baseline</t>
+    <t>Bottled gas(LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Refridgerants - baseline</t>
+  </si>
+  <si>
+    <t>Liquid fuel(Petrol or Diesel) - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
   </si>
   <si>
     <t>Anaesthetic Gases - baseline</t>
   </si>
   <si>
-    <t>Refridgerant - baseline</t>
-  </si>
-  <si>
     <t>Waste - baseline</t>
   </si>
   <si>
@@ -111,16 +114,19 @@
     <t>Framework-supplied default</t>
   </si>
   <si>
-    <t>Vehicle Fuel - multiplier</t>
-  </si>
-  <si>
-    <t>Travel - multiplier</t>
+    <t>Bottled gas(LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Refridgerants - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel(Petrol or Diesel) - multiplier</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic Gases - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerant - multiplier</t>
   </si>
   <si>
     <t>Waste - multiplier</t>
@@ -547,7 +553,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,7 +628,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -660,13 +666,13 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -699,7 +705,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -710,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>39.73</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -737,7 +743,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -748,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>27.76</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -775,7 +781,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -786,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>0.12</v>
+        <v>107.27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -813,7 +819,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -824,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>3.05</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -851,7 +857,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -862,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>259.15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -889,7 +895,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -900,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>2.28</v>
+        <v>420.18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -927,7 +933,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -938,7 +944,45 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>2.34</v>
+        <v>582.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mb_hosp</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>720.24</v>
       </c>
     </row>
   </sheetData>
@@ -982,6 +1026,14 @@
       <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -998,7 +1050,7 @@
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1018,6 +1070,9 @@
       <formula1>"N.A."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
@@ -1030,13 +1085,13 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1047,7 +1102,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1069,10 +1124,10 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1088,7 +1143,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1110,10 +1165,10 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1129,7 +1184,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1151,10 +1206,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1170,7 +1225,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1192,10 +1247,10 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1211,7 +1266,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1233,10 +1288,10 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1252,7 +1307,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1274,10 +1329,10 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1293,7 +1348,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1315,10 +1370,10 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>mb_hosp</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1331,6 +1386,47 @@
         <v>12</v>
       </c>
       <c r="G20" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>mb_hosp</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
@@ -1373,6 +1469,14 @@
       <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -1389,7 +1493,7 @@
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1409,6 +1513,9 @@
       <formula1>"N.A."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -51,10 +51,10 @@
     <t>Population type</t>
   </si>
   <si>
-    <t>mb_hosp</t>
-  </si>
-  <si>
-    <t>Mombasa Hospital</t>
+    <t>AKHS_Mombasa</t>
+  </si>
+  <si>
+    <t>Aga Khan Hospital, Mombasa</t>
   </si>
   <si>
     <t>facilities</t>
@@ -81,7 +81,7 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Energy - baseline</t>
+    <t>Grid Electricity - baseline</t>
   </si>
   <si>
     <t>N.A.</t>
@@ -90,16 +90,16 @@
     <t>Bottled gas(LPG) - baseline</t>
   </si>
   <si>
-    <t>Refridgerants - baseline</t>
-  </si>
-  <si>
-    <t>Liquid fuel(Petrol or Diesel) - baseline</t>
-  </si>
-  <si>
     <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
   </si>
   <si>
-    <t>Anaesthetic Gases - baseline</t>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - baseline</t>
+  </si>
+  <si>
+    <t>Refrigerants - baseline</t>
   </si>
   <si>
     <t>Waste - baseline</t>
@@ -108,7 +108,7 @@
     <t>Inhalers - baseline</t>
   </si>
   <si>
-    <t>Energy - multiplier</t>
+    <t>Grid Electricity - multiplier</t>
   </si>
   <si>
     <t>Framework-supplied default</t>
@@ -117,16 +117,16 @@
     <t>Bottled gas(LPG) - multiplier</t>
   </si>
   <si>
-    <t>Refridgerants - multiplier</t>
-  </si>
-  <si>
-    <t>Liquid fuel(Petrol or Diesel) - multiplier</t>
-  </si>
-  <si>
     <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
-    <t>Anaesthetic Gases - multiplier</t>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - multiplier</t>
+  </si>
+  <si>
+    <t>Refrigerants - multiplier</t>
   </si>
   <si>
     <t>Waste - multiplier</t>
@@ -553,7 +553,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,7 +628,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -672,7 +672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="83.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -705,7 +705,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -716,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>17.13</v>
+        <v>109530.344</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -743,7 +743,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>27.42</v>
+        <v>27079.67877</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -781,7 +781,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>107.27</v>
+        <v>5636.80524</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -819,7 +819,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -830,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>69.45</v>
+        <v>32266.70355972084</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -857,7 +857,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>259.15</v>
+        <v>23932.0312</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -895,7 +895,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>420.18</v>
+        <v>64549.918875</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -933,7 +933,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>582.86</v>
+        <v>129723.45024</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -971,7 +971,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -982,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="3">
-        <v>720.24</v>
+        <v>27984.05230769231</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1091,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="85.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1124,7 +1124,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1165,7 +1165,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1206,7 +1206,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1247,7 +1247,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1288,7 +1288,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1329,7 +1329,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1370,7 +1370,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1411,7 +1411,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mb_hosp</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -51,10 +51,10 @@
     <t>Population type</t>
   </si>
   <si>
-    <t>mt_darwin</t>
-  </si>
-  <si>
-    <t>Mt Darwin</t>
+    <t>AKHS_Mombasa</t>
+  </si>
+  <si>
+    <t>Aga Khan Hospital, Mombasa</t>
   </si>
   <si>
     <t>facilities</t>
@@ -81,22 +81,25 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Energy - baseline</t>
+    <t>Grid Electricity - baseline</t>
   </si>
   <si>
     <t>N.A.</t>
   </si>
   <si>
-    <t>Vehicle Fuel - baseline</t>
-  </si>
-  <si>
-    <t>Travel - baseline</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - baseline</t>
-  </si>
-  <si>
-    <t>Refridgerant - baseline</t>
+    <t>Bottled gas(LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - baseline</t>
+  </si>
+  <si>
+    <t>Refrigerants - baseline</t>
   </si>
   <si>
     <t>Waste - baseline</t>
@@ -105,22 +108,25 @@
     <t>Inhalers - baseline</t>
   </si>
   <si>
-    <t>Energy - multiplier</t>
+    <t>Grid Electricity - multiplier</t>
   </si>
   <si>
     <t>Framework-supplied default</t>
   </si>
   <si>
-    <t>Vehicle Fuel - multiplier</t>
-  </si>
-  <si>
-    <t>Travel - multiplier</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases - multiplier</t>
-  </si>
-  <si>
-    <t>Refridgerant - multiplier</t>
+    <t>Bottled gas(LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - multiplier</t>
+  </si>
+  <si>
+    <t>Refrigerants - multiplier</t>
   </si>
   <si>
     <t>Waste - multiplier</t>
@@ -547,7 +553,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,7 +628,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -660,13 +666,13 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="83.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -699,7 +705,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -710,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>39.73</v>
+        <v>109530.344</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -737,7 +743,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -748,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>27.76</v>
+        <v>27079.67877</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -775,7 +781,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -786,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>0.12</v>
+        <v>5636.80524</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -813,7 +819,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -824,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>3.05</v>
+        <v>32266.70355972084</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -851,7 +857,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -862,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>23932.0312</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -889,7 +895,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -900,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>2.28</v>
+        <v>64549.918875</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -927,7 +933,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -938,7 +944,45 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>2.34</v>
+        <v>129723.45024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>27984.05230769231</v>
       </c>
     </row>
   </sheetData>
@@ -982,6 +1026,14 @@
       <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -998,7 +1050,7 @@
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1018,6 +1070,9 @@
       <formula1>"N.A."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
@@ -1030,13 +1085,13 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1047,7 +1102,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1069,10 +1124,10 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1088,7 +1143,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1110,10 +1165,10 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1129,7 +1184,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1151,10 +1206,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1170,7 +1225,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1192,10 +1247,10 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1211,7 +1266,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1233,10 +1288,10 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1252,7 +1307,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1274,10 +1329,10 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1293,7 +1348,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1315,10 +1370,10 @@
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1331,6 +1386,47 @@
         <v>12</v>
       </c>
       <c r="G20" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
@@ -1373,6 +1469,14 @@
       <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -1389,7 +1493,7 @@
       <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1409,6 +1513,9 @@
       <formula1>"N.A."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -589,7 +589,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,9 +602,13 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -622,10 +626,22 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -641,14 +657,18 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -666,7 +686,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,9 +699,13 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -699,10 +723,22 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -718,8 +754,12 @@
       <c r="G2" s="3">
         <v>109530.344</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -737,10 +777,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -756,8 +808,12 @@
       <c r="G5" s="3">
         <v>27079.67877</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -775,10 +831,22 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -794,8 +862,12 @@
       <c r="G8" s="3">
         <v>5636.80524</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -813,10 +885,22 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -832,8 +916,12 @@
       <c r="G11" s="3">
         <v>32266.70355972084</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -851,10 +939,22 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -870,8 +970,12 @@
       <c r="G14" s="3">
         <v>23932.0312</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -889,10 +993,22 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -908,8 +1024,12 @@
       <c r="G17" s="3">
         <v>64549.918875</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,10 +1047,22 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -946,8 +1078,12 @@
       <c r="G20" s="3">
         <v>129723.45024</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,10 +1101,22 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -984,70 +1132,74 @@
       <c r="G23" s="3">
         <v>27984.05230769231</v>
       </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+      <formula>AND(COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+      <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -1085,7 +1237,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,9 +1250,13 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1118,10 +1274,22 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1140,8 +1308,12 @@
         <v>12</v>
       </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1159,10 +1331,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1181,8 +1365,12 @@
         <v>12</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1200,10 +1388,22 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1222,8 +1422,12 @@
         <v>12</v>
       </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1241,10 +1445,22 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1263,8 +1479,12 @@
         <v>12</v>
       </c>
       <c r="G11" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1282,10 +1502,22 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1304,8 +1536,12 @@
         <v>12</v>
       </c>
       <c r="G14" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1323,10 +1559,22 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1345,8 +1593,12 @@
         <v>12</v>
       </c>
       <c r="G17" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1364,10 +1616,22 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1386,8 +1650,12 @@
         <v>12</v>
       </c>
       <c r="G20" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1405,10 +1673,22 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1427,70 +1707,74 @@
         <v>12</v>
       </c>
       <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+      <formula>AND(COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+      <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="35">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -87,13 +87,19 @@
     <t>N.A.</t>
   </si>
   <si>
-    <t>Bottled gas(LPG) - baseline</t>
+    <t>Grid gas - baseline</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - baseline</t>
   </si>
   <si>
     <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
   </si>
   <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - baseline</t>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
   </si>
   <si>
     <t>Anaesthetic gases - baseline</t>
@@ -114,13 +120,19 @@
     <t>Framework-supplied default</t>
   </si>
   <si>
-    <t>Bottled gas(LPG) - multiplier</t>
+    <t>Grid gas - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - multiplier</t>
   </si>
   <si>
     <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic gases - multiplier</t>
@@ -601,11 +613,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -686,7 +694,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,11 +706,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -752,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>109530.344</v>
+        <v>157957</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -806,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>27079.67877</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -860,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>5636.80524</v>
+        <v>40600</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -914,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>32266.70355972084</v>
+        <v>7890</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -968,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>23932.0312</v>
+        <v>8834</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1022,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>64549.918875</v>
+        <v>45472</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1076,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>129723.45024</v>
+        <v>36604</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1130,13 +1134,121 @@
         <v>12</v>
       </c>
       <c r="G23" s="3">
-        <v>27984.05230769231</v>
+        <v>69090</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>186383</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>42284</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
@@ -1186,6 +1298,22 @@
       <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -1202,7 +1330,7 @@
       <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1227,6 +1355,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1237,7 +1371,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,16 +1383,12 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1295,7 +1425,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1315,7 +1445,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1352,7 +1482,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1372,7 +1502,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1409,7 +1539,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1429,7 +1559,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1466,7 +1596,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1486,7 +1616,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1523,7 +1653,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1543,7 +1673,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1580,7 +1710,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1600,7 +1730,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1637,7 +1767,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1657,7 +1787,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1694,7 +1824,7 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1712,6 +1842,120 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
@@ -1761,6 +2005,22 @@
       <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -1777,7 +2037,7 @@
       <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"N.A."</formula1>
     </dataValidation>
@@ -1802,6 +2062,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"N.A."</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/books/carbomica_databook.xlsx
+++ b/books/carbomica_databook.xlsx
@@ -99,7 +99,7 @@
     <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
   </si>
   <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
+    <t>Business travel - baseline</t>
   </si>
   <si>
     <t>Anaesthetic gases - baseline</t>
@@ -132,7 +132,7 @@
     <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
+    <t>Business travel - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic gases - multiplier</t>
@@ -700,7 +700,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1377,7 +1377,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
